--- a/spreadsheet/macrofree/sql_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/sql_checklist.zh-Hant.xlsx
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>記憶體優化虛擬機大小是 SQL Server VM 的主要目標，也是 Microsoft 的建議選擇。記憶體優化虛擬機提供更強的記憶體與CPU比率和大中型緩存選項。對於大多數 SQL Server 工作負載，首先考慮 Ebdsv5 系列系列。</t>
+          <t>記憶體優化的虛擬機大小是 SQL Server VM 的主要目標，也是 Microsoft 的建議選擇。記憶體優化虛擬機提供更強的記憶體與CPU比率和大中型緩存選項。對於大多數 SQL Server 工作負載，首先考慮 Ebdsv5 系列系列。</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>這會在磁碟級別提供更多專用磁碟 IOPS 和輸送量，還允許將每個磁碟的 Azure 磁碟主機快取設定配置為該數據類型的最佳設置。</t>
+          <t>這在磁碟級別提供了更多專用磁碟 IOPS 和輸送量，還允許將每個磁碟的 Azure 磁碟主機快取設置配置為該數據類型的最佳設置。</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>檢查存儲是否與 VM 位於同一區域。例如，如果 VM 位於美國東部 2 中，請確保儲存位於美國東部 2 中。</t>
+          <t>檢查存儲是否與 VM 位於同一區域。例如，如果 VM 位於美國東部 2，請確保存儲位於美國東部 2。</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>HADR型</t>
+          <t>HADR的</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>建議獲得最佳性能和可用性：將所有資料庫遷移到數據磁碟和日誌磁碟</t>
+          <t>為獲得最佳性能和可用性，建議將所有資料庫遷移到數據磁碟和日誌磁碟</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender 檢測異常活動，指示訪問或利用 SQL Server 上的資料庫的異常和潛在有害嘗試。</t>
+          <t>Microsoft Defender 檢測異常活動，指示訪問或利用 SQL Server 上的資料庫的異常和可能有害的嘗試。</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>驗證源和目標上的數據相同后，可以從源環境切換到目標環境。請務必與業務/應用程式團隊一起規劃直接轉換過程，以確保直接轉換期間的最小中斷不會影響業務連續性。</t>
+          <t>驗證源和目標上的數據相同后，可以從源環境切換到目標環境。請務必與業務/應用程式團隊一起規劃轉換過程，以確保轉換期間的最小中斷不會影響業務連續性。</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>確保在實例創建時自定義時區設置。以後無法更改它。</t>
+          <t>確保您在實體建立時自訂時區設置。以後無法更改它。</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>使用將資料更改從源持續複製/同步到目標的遷移選項時，源數據和架構可能會更改並從目標偏移。在數據同步期間，請確保在遷移過程中捕獲源上的所有更改並將其應用於目標。</t>
+          <t>使用將資料更改從源持續複製/同步到目標的遷移選項時，源數據和架構可能會更改並從目標漂移。在數據同步期間，請確保在遷移過程中捕獲源上的所有更改並將其應用於目標。</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>如果已實現故障轉移組，則在故障轉移/故障恢復期間測試手動故障轉移和故障回復，並測試應用程式連接行為</t>
+          <t>如果已實現故障轉移組，則測試手動故障轉移和故障回復，並在故障轉移/故障回復期間測試應用程式連接行為</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t>通過維護時段功能，可以將 Azure SQL 資源加入到工作時間之外的預計劃時間塊。</t>
+          <t>通過維護時段功能，可以將 Azure SQL 資源加入到工作時間之外的預先計劃的時間段。</t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
